--- a/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>01/08/2014 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2014-09-01</t>
+          <t>01/09/2014 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2016-06-01</t>
+          <t>01/06/2016 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>01/04/2016 00:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">

--- a/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/08/2014 00:00</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>01/09/2014 00:00</t>
+          <t>2014-09-01</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/06/2016 00:00</t>
+          <t>2016-06-01</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/04/2016 00:00</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">

--- a/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_1/P12_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5119,6 +5119,1098 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MFD13437</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>55.4687</v>
+      </c>
+      <c r="D62">
+        <v>15.4775</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 13 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MFD13436</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>55.4687</v>
+      </c>
+      <c r="D63">
+        <v>15.4775</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 25 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MFD13435</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>55.4687</v>
+      </c>
+      <c r="D64">
+        <v>15.4775</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 35 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MFD13434</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>55.4687</v>
+      </c>
+      <c r="D65">
+        <v>15.4775</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 41 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MFD13433</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>55.4687</v>
+      </c>
+      <c r="D66">
+        <v>15.4775</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 47 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MFD13432</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>55.4687</v>
+      </c>
+      <c r="D67">
+        <v>15.4775</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 55 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MFD13431</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>55.4687</v>
+      </c>
+      <c r="D68">
+        <v>15.4775</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 63 cm, station bb03-rl-7 (Rumohr lot core 7). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MFD13429</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>55.372</v>
+      </c>
+      <c r="D69">
+        <v>15.4613</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 19 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MFD13428</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>55.372</v>
+      </c>
+      <c r="D70">
+        <v>15.4613</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 35 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MFD13427</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>55.372</v>
+      </c>
+      <c r="D71">
+        <v>15.4613</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 47 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MFD13426</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>55.372</v>
+      </c>
+      <c r="D72">
+        <v>15.4613</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 53 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MFD13425</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>55.372</v>
+      </c>
+      <c r="D73">
+        <v>15.4613</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 59 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MFD13424</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>55.372</v>
+      </c>
+      <c r="D74">
+        <v>15.4613</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 65 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MFD13423</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>55.372</v>
+      </c>
+      <c r="D75">
+        <v>15.4613</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>bornholm basin</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>water depth 96 m, sediment depth 73 cm, station bb03-rl-12 (Rumohr lot core 12). included in Caitlins ANME deep-seq project</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>P12_1</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Open sea</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Østersøen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
